--- a/scripts/violations.xlsx
+++ b/scripts/violations.xlsx
@@ -25,29 +25,11 @@
 Code
 Sort
 Date (new-old)
-FORD MUSTANG, 2024, Black
+CADILLAC ESCALADE, 2023, Blue
 Date and Time of Issuing The Fine
-12 Jul 2025, 4:58 am
-Amount
-AED 700
-Source
-Dubai Police
-Black points
--
-BMW 330I 2023, Black
-Date and Time of Issuing The Fine
-12 Jul 2025, 3:41 am
+14 Jul 2025, 12:10 am
 Amount
 AED 600
-Source
-Dubai Police
-Black points
--
-NISSAN SENTRA, 2023, Blue
-Date and Time of Issuing The Fine
-11 Jul 2025, 1:18 pm
-Amount
-AED 400
 Source
 Dubai Police
 Black points

--- a/scripts/violations.xlsx
+++ b/scripts/violations.xlsx
@@ -25,22 +25,40 @@
 Code
 Sort
 Date (new-old)
-NISSAN VERSA, 2024, Blue
+MERCEDES E350, 2023, Gray
 Date and Time of Issuing The Fine
-19 Jul 2025, 8:50 am
+26 Jul 2025, 10:24 am
 Amount
-AED 500
+AED 400
 Source
 Dubai Police
 Black points
 -
-KIA PEGAS, 2024, White
+BMW 530, 2024, Black
 Date and Time of Issuing The Fine
-16 Jul 2025, 7:55 pm
+25 Jul 2025, 9:59 pm
 Amount
-AED 100
+AED 600
 Source
-RTA (Parking Fines)
+Dubai Police
+Black points
+-
+KIA PEGAS, 2024, Gray
+Date and Time of Issuing The Fine
+25 Jul 2025, 3:36 pm
+Amount
+AED 150
+Source
+Department of Transportation Abu Dhabi
+Black points
+-
+KIA FORTE, 2024, Black
+Date and Time of Issuing The Fine
+22 Jul 2025, 11:57 am
+Amount
+AED 300
+Source
+Um Al Quewain Traffic
 Black points
 -
 KIA K5, 2023, Black
